--- a/wwwroot/data/employees/test.xlsx
+++ b/wwwroot/data/employees/test.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoPath\src\forcamp\wwwroot\data\participants\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="8745"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Фамилия</t>
+  </si>
   <si>
     <t>Имя</t>
   </si>
   <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
     <t>Отчество</t>
   </si>
   <si>
@@ -42,20 +34,40 @@
   </si>
   <si>
     <t>Пароль</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>команда 3</t>
+  </si>
+  <si>
+    <t>employee_13</t>
+  </si>
+  <si>
+    <t>187168</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>employee_14</t>
+  </si>
+  <si>
+    <t>188890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,44 +75,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style=""/>
+      <right style=""/>
+      <top style=""/>
+      <bottom style=""/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,44 +117,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -173,31 +182,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -225,26 +217,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -253,182 +228,292 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5703125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.28515625" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.42578125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.85546875" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>